--- a/original_data/knoxgardens.xlsx
+++ b/original_data/knoxgardens.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Meredith/Documents/GitHub/knoxgardens/original_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A03E1C31-1B49-F148-887D-D8DD2AE98231}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5CC5F839-8465-C745-992E-6BB757305FA6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="460" windowWidth="27600" windowHeight="17040" xr2:uid="{1398F744-E93C-F842-A21C-B95097D0C1B9}"/>
+    <workbookView xWindow="3840" yWindow="3320" windowWidth="27600" windowHeight="17040" xr2:uid="{1398F744-E93C-F842-A21C-B95097D0C1B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,8 +29,8 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{5FA7DB9A-16EF-F847-951A-179DD5B3294C}" name="knoxgardens" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/Meredith/Documents/GitHub/knoxgardens/original_data/knoxgardens.csv" tab="0" qualifier="none" delimiter="|">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="knoxgardens" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr sourceFile="/Users/Meredith/Documents/GitHub/knoxgardens/original_data/knoxgardens.csv" tab="0" qualifier="none" delimiter="|">
       <textFields count="68">
         <textField/>
         <textField/>
@@ -2688,7 +2688,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="knoxgardens" connectionId="1" xr16:uid="{96697073-FDF7-9E46-B375-9A67C1988A20}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="knoxgardens" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2990,7 +2990,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{849E9AE2-DD57-BC42-BB19-17EDD5D773EE}">
   <dimension ref="A1:BP113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="BN1" workbookViewId="0">
+      <selection activeCell="BO5" sqref="BO5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
